--- a/biology/Médecine/Nœud_atrioventriculaire/Nœud_atrioventriculaire.xlsx
+++ b/biology/Médecine/Nœud_atrioventriculaire/Nœud_atrioventriculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C5%93ud_atrioventriculaire</t>
+          <t>Nœud_atrioventriculaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nœud atrioventriculaire ou auriculo-ventriculaire (ou d'Aschoff-Tawara) est une structure du cœur constituée de tissu cardionecteur. Il transmet l'impulsion de contraction musculaire entre les oreillettes et les ventricules via le faisceau de His.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C5%93ud_atrioventriculaire</t>
+          <t>Nœud_atrioventriculaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nœud atrioventriculaire est situé dans le septum atrioventriculaire au niveau du triangle de Koch, structure visible dans l'oreillette droite (atrium droit) et délimitée par la valvule septale de la valve tricuspide, l'abouchement du sinus coronaire et le tendon de Todaro. Il est en continuité avec le faisceau de His au niveau du corps fibreux central du cœur. Il est vascularisé le plus souvent par une branche de l'artère coronaire droite, plus rarement par une branche de l'artère coronaire gauche ou par les deux artères[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nœud atrioventriculaire est situé dans le septum atrioventriculaire au niveau du triangle de Koch, structure visible dans l'oreillette droite (atrium droit) et délimitée par la valvule septale de la valve tricuspide, l'abouchement du sinus coronaire et le tendon de Todaro. Il est en continuité avec le faisceau de His au niveau du corps fibreux central du cœur. Il est vascularisé le plus souvent par une branche de l'artère coronaire droite, plus rarement par une branche de l'artère coronaire gauche ou par les deux artères.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C5%93ud_atrioventriculaire</t>
+          <t>Nœud_atrioventriculaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Physiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La dépolarisation qui naît du nœud sinusal à une fréquence de 70 par minute se propage de proche en proche dans les deux oreillettes avant de parvenir au nœud atrioventriculaire. Celui-ci transmet le signal vers le faisceau de His qui conduit l'influx électrique aux ventricules.
 Le nœud atrioventriculaire impose un retard de 40 ms à la conduction de cette dépolarisation, ce qui laisse le temps à l'éjection du sang des oreillettes vers les ventricules avant que la contraction des ventricules n'ait lieu, afin que celle-ci soit efficace.
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N%C5%93ud_atrioventriculaire</t>
+          <t>Nœud_atrioventriculaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Pathologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bloc atrioventriculaire fait partie des troubles de conduction cardiaque. Les symptômes révélateurs peuvent comporter une lipothymie, une syncope ou une insuffisance cardiaque. À l'examen lorsque le bloc est présent il est possible de constater une bradycardie. C'est l'électrocardiogramme qui permet de porter le diagnostic et de classer le « degré » de l'atteinte. Les causes sont nombreuses, et le traitement spécifique est l'implantation d'un stimulateur cardiaque, en principe indiqué lorsqu'il s'agit d'un bloc symptomatique de haut degré sans cause réversible.
 </t>
